--- a/NALM Table.xlsx
+++ b/NALM Table.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EDE53A-8FC2-4311-B114-3371E625BACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D468C-053F-4113-83CD-1A3A81D8F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NALM2009" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="age">Sheet1!$B$4</definedName>
+    <definedName name="i">Sheet1!$B$2</definedName>
+    <definedName name="inc">Sheet1!$B$3</definedName>
+    <definedName name="nalm">NALM2009!$A$1:$B$101</definedName>
+    <definedName name="ps">Sheet1!$B$5</definedName>
+    <definedName name="re_age">Sheet1!$B$6</definedName>
+    <definedName name="rea">Sheet1!$B$6</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -63,15 +74,115 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Assumption </t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Salary Increment</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ret Age </t>
+  </si>
+  <si>
+    <t>Decrement</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>qx</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>https://github.com/IKSHRESTHA/Material</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>Exp death benefit</t>
+  </si>
+  <si>
+    <t>Exp retirement benefit</t>
+  </si>
+  <si>
+    <t>Exp PV of Benefit</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>EID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>DOJ</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>IOO2</t>
+  </si>
+  <si>
+    <t>Rahurl</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IOO1</t>
+  </si>
+  <si>
+    <t>Past Service</t>
+  </si>
+  <si>
+    <t>IOO3</t>
+  </si>
+  <si>
+    <t>age1</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>IOO4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -95,16 +206,41 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -149,11 +285,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -179,8 +354,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -1415,4 +1610,1220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A543F4A-1944-4AE3-B1E1-5789A30D3450}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="11" max="11" width="22.26953125" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <f>MATCH(E2,Sheet2!B4:B6,)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>INDEX(Sheet2!$B$4:$F$6,Sheet1!$G$2,3)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <f>E3</f>
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <f>INDEX(Sheet2!$B$4:$F$6,Sheet1!$G$2,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
+        <f>E4</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f>INDEX(Sheet2!$B$4:$F$6,Sheet1!$G$2,5)</f>
+        <v>24000</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12">
+        <f>E5</f>
+        <v>24000</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="M7" s="10">
+        <f>SUM(M9:M29)</f>
+        <v>4158.5210656706558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>age</f>
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <f>ps</f>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>IF(E9&lt;3,0,IF(AND(E9&gt;=3,E9&lt;=5),1,IF(AND(E9&gt;5,E9&lt;=15),2,3)))</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G40" si="0">IF(D9&lt;=re_age,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>B7</f>
+        <v>24000</v>
+      </c>
+      <c r="I9">
+        <f>1*G9</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>VLOOKUP(D9,nalm,2,FALSE)*G9</f>
+        <v>1.459E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K29" si="1">IF(D9&lt;re_age,J9*F9*H9,0)</f>
+        <v>35.015999999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L29" si="2">IF(D9=re_age,F9*H9*I9*E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M29" si="3">(1+i)^-C9*(K9+L9)</f>
+        <v>35.015999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <f>C9+1</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D73" si="4">age+C10</f>
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <f>E9+1</f>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F29" si="5">IF(E10&lt;3,0,IF(AND(E10&gt;=3,E10&lt;=5),1,IF(AND(E10&gt;5,E10&lt;=15),2,3)))</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H29" si="6">H9*(1+inc)</f>
+        <v>25920</v>
+      </c>
+      <c r="I10">
+        <f>I9-J9*G10</f>
+        <v>0.99854100000000001</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP(D10,nalm,2,FALSE)*G10</f>
+        <v>1.5640000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>40.538879999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>36.85352727272727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <f t="shared" ref="C11:C29" si="7">C10+1</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E74" si="8">E10+1</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>27993.600000000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I29" si="9">I10-J10</f>
+        <v>0.996977</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J29" si="10">VLOOKUP(D11,nalm,2,FALSE)</f>
+        <v>1.6869999999999999E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>47.225203200000003</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>39.029093553719008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>30233.088000000003</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>0.99529000000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>1.8289999999999999E-3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>110.59263590400001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>83.089884225394414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>32651.735040000007</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>0.99346100000000004</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>1.9880000000000002E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>129.82329851904004</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>88.671059708380582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>35263.87384320001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>0.99147300000000005</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>2.196E-3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>154.87893391933446</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>96.167632563184583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>38084.983750656014</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>0.98927700000000007</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>183.56962167816198</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>103.62026578715715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>41131.782450708495</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>0.98686700000000005</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>2.5990000000000002E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>213.80300517878277</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>109.71474780961415</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>44422.325046765174</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>0.98426800000000003</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>2.8029999999999999E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>249.03155421216556</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>116.17505794507549</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>47976.111050506392</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>0.98146500000000003</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="10"/>
+        <v>3.0569999999999998E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>293.32594296279603</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>124.39883381738508</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>51814.199934546908</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>0.97840800000000006</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="10"/>
+        <v>3.3649999999999999E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>348.70956555950067</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>134.44263296135276</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>55959.335929310662</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>0.9750430000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="10"/>
+        <v>3.7269999999999998E-3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>417.12089001708165</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>146.19832729723586</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>60436.082803655518</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="9"/>
+        <v>0.97131600000000007</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>4.1450000000000002E-3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>501.01512644230428</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>159.6388594235691</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>65270.969427947966</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>0.96717100000000011</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="10"/>
+        <v>4.6169999999999996E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>904.06819754650724</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>261.87635368197436</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>70492.646982183811</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>0.96255400000000013</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="10"/>
+        <v>5.1440000000000001E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1087.8425282290607</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>286.46293744605549</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>76132.058740758526</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0.95741000000000009</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="10"/>
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1307.3397126963055</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>312.96673304406187</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>82222.623440019219</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>0.95168600000000014</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="10"/>
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1568.8076552355667</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>341.41825422988569</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>88800.433315220769</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>0.94532600000000011</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="10"/>
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1878.1291646169191</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>371.57784272532155</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>95904.467980438436</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0.93827600000000011</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="10"/>
+        <v>7.7939999999999997E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>2242.4382703186116</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>403.32223374561556</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>103576.82541887352</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>0.93048200000000014</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="10"/>
+        <v>8.5939999999999992E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>2670.4177129493969</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>436.63463491200747</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>111862.9714523834</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>0.92188800000000015</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="10"/>
+        <v>9.4470000000000005E-3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>3170.3084739319979</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>471.24615352093792</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="L31" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F07F275-E452-4857-86E8-44ED4CA111FC}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17">
+        <v>35</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>